--- a/Transformer/result/daqingyoutian_result_SP.xlsx
+++ b/Transformer/result/daqingyoutian_result_SP.xlsx
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>85.50634765625</v>
+        <v>85.50363159179688</v>
       </c>
       <c r="B3" t="n">
         <v>85.575</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>85.35428619384766</v>
+        <v>85.28804016113281</v>
       </c>
       <c r="B4" t="n">
         <v>85.244</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>85.21530914306641</v>
+        <v>85.033447265625</v>
       </c>
       <c r="B5" t="n">
         <v>85.00700000000001</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>85.08796691894531</v>
+        <v>84.98120880126953</v>
       </c>
       <c r="B6" t="n">
         <v>84.86499999999999</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>84.96269226074219</v>
+        <v>84.73587799072266</v>
       </c>
       <c r="B7" t="n">
         <v>84.771</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>84.81362915039062</v>
+        <v>84.65533447265625</v>
       </c>
       <c r="B8" t="n">
         <v>84.58199999999999</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>84.6451416015625</v>
+        <v>84.51224517822266</v>
       </c>
       <c r="B9" t="n">
         <v>84.345</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84.49752044677734</v>
+        <v>84.32132720947266</v>
       </c>
       <c r="B10" t="n">
         <v>84.15600000000001</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>84.39295959472656</v>
+        <v>84.06070709228516</v>
       </c>
       <c r="B11" t="n">
         <v>83.77800000000001</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>84.31111145019531</v>
+        <v>83.79734039306641</v>
       </c>
       <c r="B12" t="n">
         <v>83.25700000000001</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>84.17150115966797</v>
+        <v>83.64621734619141</v>
       </c>
       <c r="B13" t="n">
         <v>82.974</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>83.93513488769531</v>
+        <v>83.31629180908203</v>
       </c>
       <c r="B14" t="n">
         <v>82.879</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>83.65133666992188</v>
+        <v>83.07884979248047</v>
       </c>
       <c r="B15" t="n">
         <v>82.785</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>83.421142578125</v>
+        <v>82.79058074951172</v>
       </c>
       <c r="B16" t="n">
         <v>82.595</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>83.28640747070312</v>
+        <v>82.51026916503906</v>
       </c>
       <c r="B17" t="n">
         <v>82.312</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>83.24373626708984</v>
+        <v>82.43016815185547</v>
       </c>
       <c r="B18" t="n">
         <v>82.17</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>83.31648254394531</v>
+        <v>82.40478515625</v>
       </c>
       <c r="B19" t="n">
         <v>82.17</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>83.47209930419922</v>
+        <v>82.530517578125</v>
       </c>
       <c r="B20" t="n">
         <v>82.075</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>83.66641235351562</v>
+        <v>82.66835021972656</v>
       </c>
       <c r="B21" t="n">
         <v>82.264</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>83.91169738769531</v>
+        <v>82.82207489013672</v>
       </c>
       <c r="B22" t="n">
         <v>82.785</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>84.23048400878906</v>
+        <v>82.93791961669922</v>
       </c>
       <c r="B23" t="n">
         <v>82.926</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>84.58135986328125</v>
+        <v>83.13436889648438</v>
       </c>
       <c r="B24" t="n">
         <v>82.83199999999999</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>84.96164703369141</v>
+        <v>83.27472686767578</v>
       </c>
       <c r="B25" t="n">
         <v>82.879</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>85.42247772216797</v>
+        <v>83.33266448974609</v>
       </c>
       <c r="B26" t="n">
         <v>83.068</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>85.94414520263672</v>
+        <v>83.55474853515625</v>
       </c>
       <c r="B27" t="n">
         <v>83.352</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>86.44942474365234</v>
+        <v>83.63894653320312</v>
       </c>
       <c r="B28" t="n">
         <v>83.541</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>86.85277557373047</v>
+        <v>83.85031127929688</v>
       </c>
       <c r="B29" t="n">
         <v>83.58799999999999</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>87.16551208496094</v>
+        <v>83.94819641113281</v>
       </c>
       <c r="B30" t="n">
         <v>83.68300000000001</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>87.38729858398438</v>
+        <v>84.12348175048828</v>
       </c>
       <c r="B31" t="n">
         <v>83.872</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>87.72956848144531</v>
+        <v>84.09788513183594</v>
       </c>
       <c r="B32" t="n">
         <v>84.06100000000001</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>88.17814636230469</v>
+        <v>84.14695739746094</v>
       </c>
       <c r="B33" t="n">
         <v>84.203</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>88.72662353515625</v>
+        <v>84.04964447021484</v>
       </c>
       <c r="B34" t="n">
         <v>84.15600000000001</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>89.2628173828125</v>
+        <v>83.98815155029297</v>
       </c>
       <c r="B35" t="n">
         <v>83.919</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>89.82039642333984</v>
+        <v>83.9676513671875</v>
       </c>
       <c r="B36" t="n">
         <v>83.73</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>90.32109832763672</v>
+        <v>83.90817260742188</v>
       </c>
       <c r="B37" t="n">
         <v>83.77800000000001</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>90.64223480224609</v>
+        <v>83.82691192626953</v>
       </c>
       <c r="B38" t="n">
         <v>83.73</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>90.689697265625</v>
+        <v>83.87716674804688</v>
       </c>
       <c r="B39" t="n">
         <v>83.447</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>90.40772247314453</v>
+        <v>83.95416259765625</v>
       </c>
       <c r="B40" t="n">
         <v>83.494</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>89.99139404296875</v>
+        <v>83.92467498779297</v>
       </c>
       <c r="B41" t="n">
         <v>83.77800000000001</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>89.63363647460938</v>
+        <v>84.02324676513672</v>
       </c>
       <c r="B42" t="n">
         <v>83.77800000000001</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>89.47958374023438</v>
+        <v>84.15519714355469</v>
       </c>
       <c r="B43" t="n">
         <v>83.68300000000001</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>89.59300994873047</v>
+        <v>84.28826904296875</v>
       </c>
       <c r="B44" t="n">
         <v>83.825</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>89.94255828857422</v>
+        <v>84.50522613525391</v>
       </c>
       <c r="B45" t="n">
         <v>84.203</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>90.42683410644531</v>
+        <v>84.6026611328125</v>
       </c>
       <c r="B46" t="n">
         <v>84.58199999999999</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>90.92240905761719</v>
+        <v>84.80810546875</v>
       </c>
       <c r="B47" t="n">
         <v>84.676</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>91.32756042480469</v>
+        <v>84.92685699462891</v>
       </c>
       <c r="B48" t="n">
         <v>84.723</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>91.54216766357422</v>
+        <v>84.93563842773438</v>
       </c>
       <c r="B49" t="n">
         <v>84.818</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>91.48832702636719</v>
+        <v>84.98284149169922</v>
       </c>
       <c r="B50" t="n">
         <v>84.913</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>91.17625427246094</v>
+        <v>85.00737762451172</v>
       </c>
       <c r="B51" t="n">
         <v>85.149</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>90.68173217773438</v>
+        <v>85.0469970703125</v>
       </c>
       <c r="B52" t="n">
         <v>85.33799999999999</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>90.07563018798828</v>
+        <v>85.13873291015625</v>
       </c>
       <c r="B53" t="n">
         <v>85.244</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>89.47407531738281</v>
+        <v>85.15757751464844</v>
       </c>
       <c r="B54" t="n">
         <v>84.95999999999999</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>89.00357818603516</v>
+        <v>85.1907958984375</v>
       </c>
       <c r="B55" t="n">
         <v>84.86499999999999</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>88.68453979492188</v>
+        <v>85.18881988525391</v>
       </c>
       <c r="B56" t="n">
         <v>84.723</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>88.54486846923828</v>
+        <v>85.03307342529297</v>
       </c>
       <c r="B57" t="n">
         <v>84.58199999999999</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>88.54155731201172</v>
+        <v>84.93563079833984</v>
       </c>
       <c r="B58" t="n">
         <v>84.723</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>88.54822540283203</v>
+        <v>84.85630035400391</v>
       </c>
       <c r="B59" t="n">
         <v>84.95999999999999</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>88.45561218261719</v>
+        <v>84.79914855957031</v>
       </c>
       <c r="B60" t="n">
         <v>85.196</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>88.31814575195312</v>
+        <v>84.75458526611328</v>
       </c>
       <c r="B61" t="n">
         <v>85.149</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>88.24752807617188</v>
+        <v>84.82766723632812</v>
       </c>
       <c r="B62" t="n">
         <v>85.00700000000001</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>88.28826904296875</v>
+        <v>84.99272155761719</v>
       </c>
       <c r="B63" t="n">
         <v>85.00700000000001</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>88.40172576904297</v>
+        <v>85.13253021240234</v>
       </c>
       <c r="B64" t="n">
         <v>85.054</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>88.52468872070312</v>
+        <v>85.20018768310547</v>
       </c>
       <c r="B65" t="n">
         <v>85.149</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>88.59402465820312</v>
+        <v>85.04462432861328</v>
       </c>
       <c r="B66" t="n">
         <v>85.196</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>88.58576202392578</v>
+        <v>84.580810546875</v>
       </c>
       <c r="B67" t="n">
         <v>85.00700000000001</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>88.52503967285156</v>
+        <v>84.00326538085938</v>
       </c>
       <c r="B68" t="n">
         <v>84.392</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>88.44537353515625</v>
+        <v>83.04740142822266</v>
       </c>
       <c r="B69" t="n">
         <v>83.447</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>88.33901214599609</v>
+        <v>82.09242248535156</v>
       </c>
       <c r="B70" t="n">
         <v>82.35899999999999</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>88.19564819335938</v>
+        <v>81.00582122802734</v>
       </c>
       <c r="B71" t="n">
         <v>81.129</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>88.02600860595703</v>
+        <v>80.00494384765625</v>
       </c>
       <c r="B72" t="n">
         <v>79.80500000000001</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>87.87248992919922</v>
+        <v>79.07351684570312</v>
       </c>
       <c r="B73" t="n">
         <v>78.57599999999999</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>87.72351837158203</v>
+        <v>78.25557708740234</v>
       </c>
       <c r="B74" t="n">
         <v>77.63</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>87.55007934570312</v>
+        <v>77.51618957519531</v>
       </c>
       <c r="B75" t="n">
         <v>77.015</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>87.34947967529297</v>
+        <v>76.97657775878906</v>
       </c>
       <c r="B76" t="n">
         <v>76.59</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>87.20722198486328</v>
+        <v>76.73419952392578</v>
       </c>
       <c r="B77" t="n">
         <v>76.259</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>87.19856262207031</v>
+        <v>76.47434234619141</v>
       </c>
       <c r="B78" t="n">
         <v>76.02200000000001</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>87.34951782226562</v>
+        <v>76.36594390869141</v>
       </c>
       <c r="B79" t="n">
         <v>76.02200000000001</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>87.71844482421875</v>
+        <v>76.44679260253906</v>
       </c>
       <c r="B80" t="n">
         <v>76.259</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>88.30801391601562</v>
+        <v>76.79840087890625</v>
       </c>
       <c r="B81" t="n">
         <v>76.495</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>88.95128631591797</v>
+        <v>76.99533843994141</v>
       </c>
       <c r="B82" t="n">
         <v>76.779</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>89.50734710693359</v>
+        <v>77.33277893066406</v>
       </c>
       <c r="B83" t="n">
         <v>77.11</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>89.86333465576172</v>
+        <v>77.55246734619141</v>
       </c>
       <c r="B84" t="n">
         <v>77.20399999999999</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>89.98834228515625</v>
+        <v>77.76910400390625</v>
       </c>
       <c r="B85" t="n">
         <v>77.252</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>89.95006561279297</v>
+        <v>77.92872619628906</v>
       </c>
       <c r="B86" t="n">
         <v>77.536</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>89.88700103759766</v>
+        <v>78.02682495117188</v>
       </c>
       <c r="B87" t="n">
         <v>77.583</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>89.89288330078125</v>
+        <v>77.99169158935547</v>
       </c>
       <c r="B88" t="n">
         <v>77.488</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>89.98331451416016</v>
+        <v>77.92196655273438</v>
       </c>
       <c r="B89" t="n">
         <v>77.67700000000001</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>90.08531951904297</v>
+        <v>77.73667144775391</v>
       </c>
       <c r="B90" t="n">
         <v>77.72499999999999</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>90.10883331298828</v>
+        <v>77.60976409912109</v>
       </c>
       <c r="B91" t="n">
         <v>77.63</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>90.05439758300781</v>
+        <v>77.57618713378906</v>
       </c>
       <c r="B92" t="n">
         <v>77.67700000000001</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>89.98457336425781</v>
+        <v>77.78373718261719</v>
       </c>
       <c r="B93" t="n">
         <v>77.77200000000001</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>89.96725463867188</v>
+        <v>78.18192291259766</v>
       </c>
       <c r="B94" t="n">
         <v>77.914</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>90.05244445800781</v>
+        <v>78.83749389648438</v>
       </c>
       <c r="B95" t="n">
         <v>78.292</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>90.25723266601562</v>
+        <v>79.65504455566406</v>
       </c>
       <c r="B96" t="n">
         <v>79.001</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>90.58547210693359</v>
+        <v>80.58612060546875</v>
       </c>
       <c r="B97" t="n">
         <v>79.947</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>91.03871154785156</v>
+        <v>81.54350280761719</v>
       </c>
       <c r="B98" t="n">
         <v>81.08199999999999</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>91.57924652099609</v>
+        <v>82.600341796875</v>
       </c>
       <c r="B99" t="n">
         <v>82.264</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>92.1107177734375</v>
+        <v>83.49182891845703</v>
       </c>
       <c r="B100" t="n">
         <v>83.30500000000001</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>92.54421997070312</v>
+        <v>84.17823791503906</v>
       </c>
       <c r="B101" t="n">
         <v>84.203</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>92.83240509033203</v>
+        <v>84.70887756347656</v>
       </c>
       <c r="B102" t="n">
         <v>84.818</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>92.94606781005859</v>
+        <v>84.98993682861328</v>
       </c>
       <c r="B103" t="n">
         <v>85.00700000000001</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>92.8720703125</v>
+        <v>84.96543884277344</v>
       </c>
       <c r="B104" t="n">
         <v>84.95999999999999</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>92.64885711669922</v>
+        <v>84.75519561767578</v>
       </c>
       <c r="B105" t="n">
         <v>84.771</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>92.32312774658203</v>
+        <v>84.34432983398438</v>
       </c>
       <c r="B106" t="n">
         <v>84.392</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>91.905517578125</v>
+        <v>83.75177001953125</v>
       </c>
       <c r="B107" t="n">
         <v>83.77800000000001</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>91.41716003417969</v>
+        <v>82.97270965576172</v>
       </c>
       <c r="B108" t="n">
         <v>82.879</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>90.95005798339844</v>
+        <v>82.26322937011719</v>
       </c>
       <c r="B109" t="n">
         <v>81.886</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>90.54306030273438</v>
+        <v>81.58716583251953</v>
       </c>
       <c r="B110" t="n">
         <v>81.129</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>90.21430206298828</v>
+        <v>81.22087097167969</v>
       </c>
       <c r="B111" t="n">
         <v>80.60899999999999</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>89.94425964355469</v>
+        <v>81.02191925048828</v>
       </c>
       <c r="B112" t="n">
         <v>80.373</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>89.73075866699219</v>
+        <v>81.15138244628906</v>
       </c>
       <c r="B113" t="n">
         <v>80.467</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>89.65248107910156</v>
+        <v>81.50833129882812</v>
       </c>
       <c r="B114" t="n">
         <v>80.846</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>89.71987915039062</v>
+        <v>82.04183959960938</v>
       </c>
       <c r="B115" t="n">
         <v>81.697</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>89.91057586669922</v>
+        <v>82.60435485839844</v>
       </c>
       <c r="B116" t="n">
         <v>82.69</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>90.16370391845703</v>
+        <v>83.1907958984375</v>
       </c>
       <c r="B117" t="n">
         <v>83.399</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>90.39291381835938</v>
+        <v>83.67688751220703</v>
       </c>
       <c r="B118" t="n">
         <v>83.919</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>90.53227996826172</v>
+        <v>83.93063354492188</v>
       </c>
       <c r="B119" t="n">
         <v>84.203</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>90.53520202636719</v>
+        <v>83.89213562011719</v>
       </c>
       <c r="B120" t="n">
         <v>84.014</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>90.357177734375</v>
+        <v>83.59725952148438</v>
       </c>
       <c r="B121" t="n">
         <v>83.494</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>90.00801849365234</v>
+        <v>83.12471771240234</v>
       </c>
       <c r="B122" t="n">
         <v>82.974</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>89.52794647216797</v>
+        <v>82.35577392578125</v>
       </c>
       <c r="B123" t="n">
         <v>82.501</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>88.93719482421875</v>
+        <v>81.39846038818359</v>
       </c>
       <c r="B124" t="n">
         <v>81.886</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>88.27832794189453</v>
+        <v>80.58218383789062</v>
       </c>
       <c r="B125" t="n">
         <v>80.94</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>87.64723205566406</v>
+        <v>79.70732879638672</v>
       </c>
       <c r="B126" t="n">
         <v>79.758</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>87.13275146484375</v>
+        <v>78.84276580810547</v>
       </c>
       <c r="B127" t="n">
         <v>78.67</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>86.78367614746094</v>
+        <v>78.0626220703125</v>
       </c>
       <c r="B128" t="n">
         <v>77.72499999999999</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>86.66472625732422</v>
+        <v>77.43576049804688</v>
       </c>
       <c r="B129" t="n">
         <v>76.873</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>86.76717376708984</v>
+        <v>76.86491394042969</v>
       </c>
       <c r="B130" t="n">
         <v>76.44799999999999</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>87.07395935058594</v>
+        <v>76.65489959716797</v>
       </c>
       <c r="B131" t="n">
         <v>76.542</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>87.63247680664062</v>
+        <v>76.65472412109375</v>
       </c>
       <c r="B132" t="n">
         <v>76.117</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>88.43626403808594</v>
+        <v>76.70606994628906</v>
       </c>
       <c r="B133" t="n">
         <v>75.64400000000001</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>89.39633941650391</v>
+        <v>77.05883026123047</v>
       </c>
       <c r="B134" t="n">
         <v>76.59</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>90.38357543945312</v>
+        <v>77.62901306152344</v>
       </c>
       <c r="B135" t="n">
         <v>77.583</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>91.2684326171875</v>
+        <v>78.35095977783203</v>
       </c>
       <c r="B136" t="n">
         <v>78.15000000000001</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>91.94049835205078</v>
+        <v>79.2381591796875</v>
       </c>
       <c r="B137" t="n">
         <v>79.096</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>92.33588409423828</v>
+        <v>80.04954528808594</v>
       </c>
       <c r="B138" t="n">
         <v>79.995</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>92.45733642578125</v>
+        <v>80.98656463623047</v>
       </c>
       <c r="B139" t="n">
         <v>80.846</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>92.34366607666016</v>
+        <v>81.60745239257812</v>
       </c>
       <c r="B140" t="n">
         <v>81.744</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>92.10256958007812</v>
+        <v>82.16123199462891</v>
       </c>
       <c r="B141" t="n">
         <v>82.45399999999999</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>91.82070922851562</v>
+        <v>82.52274322509766</v>
       </c>
       <c r="B142" t="n">
         <v>82.879</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>91.54522705078125</v>
+        <v>82.78572845458984</v>
       </c>
       <c r="B143" t="n">
         <v>83.116</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>91.36405944824219</v>
+        <v>82.92958068847656</v>
       </c>
       <c r="B144" t="n">
         <v>83.352</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>91.32528686523438</v>
+        <v>83.19478607177734</v>
       </c>
       <c r="B145" t="n">
         <v>83.636</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>91.45496368408203</v>
+        <v>83.47869873046875</v>
       </c>
       <c r="B146" t="n">
         <v>83.872</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>91.74627685546875</v>
+        <v>83.92205810546875</v>
       </c>
       <c r="B147" t="n">
         <v>84.06100000000001</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>92.16986083984375</v>
+        <v>84.384765625</v>
       </c>
       <c r="B148" t="n">
         <v>84.392</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>92.70250701904297</v>
+        <v>84.89219665527344</v>
       </c>
       <c r="B149" t="n">
         <v>84.913</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>93.22898101806641</v>
+        <v>85.45651245117188</v>
       </c>
       <c r="B150" t="n">
         <v>85.33799999999999</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>93.61663055419922</v>
+        <v>85.62998962402344</v>
       </c>
       <c r="B151" t="n">
         <v>85.527</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>93.81092071533203</v>
+        <v>85.58615112304688</v>
       </c>
       <c r="B152" t="n">
         <v>85.48</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>93.811279296875</v>
+        <v>85.44472503662109</v>
       </c>
       <c r="B153" t="n">
         <v>85.196</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>93.57870483398438</v>
+        <v>84.90711975097656</v>
       </c>
       <c r="B154" t="n">
         <v>84.676</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>93.07868194580078</v>
+        <v>84.15183258056641</v>
       </c>
       <c r="B155" t="n">
         <v>83.967</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>92.41300201416016</v>
+        <v>83.38494873046875</v>
       </c>
       <c r="B156" t="n">
         <v>83.116</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>91.7186279296875</v>
+        <v>82.37557983398438</v>
       </c>
       <c r="B157" t="n">
         <v>82.122</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>91.05667877197266</v>
+        <v>81.38794708251953</v>
       </c>
       <c r="B158" t="n">
         <v>81.129</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>90.45011901855469</v>
+        <v>80.39228820800781</v>
       </c>
       <c r="B159" t="n">
         <v>80.184</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>89.91070556640625</v>
+        <v>79.68093872070312</v>
       </c>
       <c r="B160" t="n">
         <v>79.143</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>89.39089965820312</v>
+        <v>79.19356536865234</v>
       </c>
       <c r="B161" t="n">
         <v>78.434</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>88.91737365722656</v>
+        <v>78.98036193847656</v>
       </c>
       <c r="B162" t="n">
         <v>78.48099999999999</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>88.48904418945312</v>
+        <v>78.96136474609375</v>
       </c>
       <c r="B163" t="n">
         <v>78.623</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>88.15376281738281</v>
+        <v>78.98545074462891</v>
       </c>
       <c r="B164" t="n">
         <v>78.67</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>87.95014190673828</v>
+        <v>79.15247344970703</v>
       </c>
       <c r="B165" t="n">
         <v>78.95399999999999</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>87.87631988525391</v>
+        <v>79.16019439697266</v>
       </c>
       <c r="B166" t="n">
         <v>79.238</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>87.86540222167969</v>
+        <v>79.09808349609375</v>
       </c>
       <c r="B167" t="n">
         <v>79.238</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>87.78742218017578</v>
+        <v>78.99077606201172</v>
       </c>
       <c r="B168" t="n">
         <v>78.86</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>87.6002197265625</v>
+        <v>78.81608581542969</v>
       </c>
       <c r="B169" t="n">
         <v>78.339</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>87.29548645019531</v>
+        <v>78.63018798828125</v>
       </c>
       <c r="B170" t="n">
         <v>78.15000000000001</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>86.89955139160156</v>
+        <v>78.28501129150391</v>
       </c>
       <c r="B171" t="n">
         <v>78.19799999999999</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>86.50487518310547</v>
+        <v>78.43541717529297</v>
       </c>
       <c r="B172" t="n">
         <v>78.19799999999999</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>86.23161315917969</v>
+        <v>78.70333099365234</v>
       </c>
       <c r="B173" t="n">
         <v>78.48099999999999</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>86.16098785400391</v>
+        <v>79.21697998046875</v>
       </c>
       <c r="B174" t="n">
         <v>79.096</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>86.27304077148438</v>
+        <v>79.85044860839844</v>
       </c>
       <c r="B175" t="n">
         <v>79.80500000000001</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>86.55812072753906</v>
+        <v>80.56673431396484</v>
       </c>
       <c r="B176" t="n">
         <v>80.751</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>87.01734924316406</v>
+        <v>81.41269683837891</v>
       </c>
       <c r="B177" t="n">
         <v>81.839</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>87.59958648681641</v>
+        <v>82.32615661621094</v>
       </c>
       <c r="B178" t="n">
         <v>82.879</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>88.23997497558594</v>
+        <v>83.30406188964844</v>
       </c>
       <c r="B179" t="n">
         <v>83.967</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>88.95945739746094</v>
+        <v>84.25965118408203</v>
       </c>
       <c r="B180" t="n">
         <v>84.913</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>89.79273986816406</v>
+        <v>85.13105010986328</v>
       </c>
       <c r="B181" t="n">
         <v>85.575</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>90.66757965087891</v>
+        <v>85.84600830078125</v>
       </c>
       <c r="B182" t="n">
         <v>86.142</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>91.46815490722656</v>
+        <v>86.449951171875</v>
       </c>
       <c r="B183" t="n">
         <v>86.709</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>92.14057922363281</v>
+        <v>86.91583251953125</v>
       </c>
       <c r="B184" t="n">
         <v>87.182</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>92.66706848144531</v>
+        <v>87.11457824707031</v>
       </c>
       <c r="B185" t="n">
         <v>87.46599999999999</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>92.98246765136719</v>
+        <v>87.27850341796875</v>
       </c>
       <c r="B186" t="n">
         <v>87.51300000000001</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>93.00827026367188</v>
+        <v>87.26316070556641</v>
       </c>
       <c r="B187" t="n">
         <v>87.419</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>92.75820922851562</v>
+        <v>87.06362152099609</v>
       </c>
       <c r="B188" t="n">
         <v>87.51300000000001</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>92.34251403808594</v>
+        <v>87.13918304443359</v>
       </c>
       <c r="B189" t="n">
         <v>87.703</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>91.898681640625</v>
+        <v>87.14018249511719</v>
       </c>
       <c r="B190" t="n">
         <v>87.75</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>91.52256774902344</v>
+        <v>87.24674987792969</v>
       </c>
       <c r="B191" t="n">
         <v>87.84399999999999</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>91.23909759521484</v>
+        <v>87.45668792724609</v>
       </c>
       <c r="B192" t="n">
         <v>88.081</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>91.0667724609375</v>
+        <v>87.57567596435547</v>
       </c>
       <c r="B193" t="n">
         <v>88.31699999999999</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>91.0277099609375</v>
+        <v>87.65404510498047</v>
       </c>
       <c r="B194" t="n">
         <v>88.36499999999999</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>91.13870239257812</v>
+        <v>87.81218719482422</v>
       </c>
       <c r="B195" t="n">
         <v>88.36499999999999</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>91.38636779785156</v>
+        <v>87.90801239013672</v>
       </c>
       <c r="B196" t="n">
         <v>88.36499999999999</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>91.708740234375</v>
+        <v>87.98142242431641</v>
       </c>
       <c r="B197" t="n">
         <v>88.27</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>92.03874969482422</v>
+        <v>87.91152191162109</v>
       </c>
       <c r="B198" t="n">
         <v>88.31699999999999</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>92.34651184082031</v>
+        <v>87.89037322998047</v>
       </c>
       <c r="B199" t="n">
         <v>88.41200000000001</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>92.63631439208984</v>
+        <v>87.52718353271484</v>
       </c>
       <c r="B200" t="n">
         <v>88.41200000000001</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>92.89999389648438</v>
+        <v>86.98695373535156</v>
       </c>
       <c r="B201" t="n">
         <v>88.36499999999999</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>93.06059265136719</v>
+        <v>86.98695373535156</v>
       </c>
       <c r="B202" t="n">
         <v>88.223</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>93.01216125488281</v>
+        <v>86.04010009765625</v>
       </c>
       <c r="B203" t="n">
         <v>87.93899999999999</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>92.68973541259766</v>
+        <v>84.88512420654297</v>
       </c>
       <c r="B204" t="n">
         <v>87.608</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>92.13368225097656</v>
+        <v>83.73133087158203</v>
       </c>
       <c r="B205" t="n">
         <v>87.51300000000001</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>91.41757202148438</v>
+        <v>82.77435302734375</v>
       </c>
       <c r="B206" t="n">
         <v>87.51300000000001</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>90.59597778320312</v>
+        <v>82.09135437011719</v>
       </c>
       <c r="B207" t="n">
         <v>87.51300000000001</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>89.76009368896484</v>
+        <v>81.65299987792969</v>
       </c>
       <c r="B208" t="n">
         <v>87.84399999999999</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>89.01109313964844</v>
+        <v>81.39884185791016</v>
       </c>
       <c r="B209" t="n">
         <v>88.31699999999999</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>88.478515625</v>
+        <v>81.29470825195312</v>
       </c>
       <c r="B210" t="n">
         <v>88.506</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>88.18807983398438</v>
+        <v>81.31734466552734</v>
       </c>
       <c r="B211" t="n">
         <v>88.554</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>88.07106018066406</v>
+        <v>81.42288208007812</v>
       </c>
       <c r="B212" t="n">
         <v>88.696</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>87.99696350097656</v>
+        <v>81.43705749511719</v>
       </c>
       <c r="B213" t="n">
         <v>88.837</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>87.92336273193359</v>
+        <v>81.36984252929688</v>
       </c>
       <c r="B214" t="n">
         <v>88.979</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>87.89242553710938</v>
+        <v>81.29360198974609</v>
       </c>
       <c r="B215" t="n">
         <v>89.21599999999999</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>88.01629638671875</v>
+        <v>81.43033599853516</v>
       </c>
       <c r="B216" t="n">
         <v>89.452</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>88.37296295166016</v>
+        <v>81.91497039794922</v>
       </c>
       <c r="B217" t="n">
         <v>89.68899999999999</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>89.01516723632812</v>
+        <v>82.83248138427734</v>
       </c>
       <c r="B218" t="n">
         <v>89.925</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>89.92341613769531</v>
+        <v>84.09452056884766</v>
       </c>
       <c r="B219" t="n">
         <v>89.878</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>90.97109985351562</v>
+        <v>85.42021942138672</v>
       </c>
       <c r="B220" t="n">
         <v>89.547</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>91.94636535644531</v>
+        <v>86.5989990234375</v>
       </c>
       <c r="B221" t="n">
         <v>89.21599999999999</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>92.64640045166016</v>
+        <v>87.56349182128906</v>
       </c>
       <c r="B222" t="n">
         <v>89.027</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>92.91976928710938</v>
+        <v>88.34048461914062</v>
       </c>
       <c r="B223" t="n">
         <v>88.932</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>92.73551940917969</v>
+        <v>88.9493408203125</v>
       </c>
       <c r="B224" t="n">
         <v>88.696</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>92.15667724609375</v>
+        <v>89.40259552001953</v>
       </c>
       <c r="B225" t="n">
         <v>88.27</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>91.414306640625</v>
+        <v>89.68167877197266</v>
       </c>
       <c r="B226" t="n">
         <v>87.892</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>90.73704528808594</v>
+        <v>89.81481170654297</v>
       </c>
       <c r="B227" t="n">
         <v>87.703</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>90.30344390869141</v>
+        <v>89.87136077880859</v>
       </c>
       <c r="B228" t="n">
         <v>87.608</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>90.15031433105469</v>
+        <v>89.97818756103516</v>
       </c>
       <c r="B229" t="n">
         <v>87.46599999999999</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>90.26537322998047</v>
+        <v>90.13964080810547</v>
       </c>
       <c r="B230" t="n">
         <v>87.372</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>90.58138275146484</v>
+        <v>90.31095886230469</v>
       </c>
       <c r="B231" t="n">
         <v>87.51300000000001</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>90.9923095703125</v>
+        <v>90.40503692626953</v>
       </c>
       <c r="B232" t="n">
         <v>87.75</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>91.38398742675781</v>
+        <v>90.40261840820312</v>
       </c>
       <c r="B233" t="n">
         <v>87.892</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>91.67242431640625</v>
+        <v>90.34705352783203</v>
       </c>
       <c r="B234" t="n">
         <v>88.128</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>91.85061645507812</v>
+        <v>90.19654846191406</v>
       </c>
       <c r="B235" t="n">
         <v>88.36499999999999</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>91.95081329345703</v>
+        <v>89.94623565673828</v>
       </c>
       <c r="B236" t="n">
         <v>88.27</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>91.98086547851562</v>
+        <v>89.72217559814453</v>
       </c>
       <c r="B237" t="n">
         <v>87.986</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>91.87399291992188</v>
+        <v>89.69880676269531</v>
       </c>
       <c r="B238" t="n">
         <v>87.703</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>91.57380676269531</v>
+        <v>89.923095703125</v>
       </c>
       <c r="B239" t="n">
         <v>87.46599999999999</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>91.06226348876953</v>
+        <v>90.35871887207031</v>
       </c>
       <c r="B240" t="n">
         <v>87.419</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>90.36453247070312</v>
+        <v>90.92218780517578</v>
       </c>
       <c r="B241" t="n">
         <v>87.797</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>89.60079193115234</v>
+        <v>91.58952331542969</v>
       </c>
       <c r="B242" t="n">
         <v>88.223</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>88.94804382324219</v>
+        <v>92.43369293212891</v>
       </c>
       <c r="B243" t="n">
         <v>88.175</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>88.51926422119141</v>
+        <v>93.48774719238281</v>
       </c>
       <c r="B244" t="n">
         <v>88.03400000000001</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>88.40025329589844</v>
+        <v>94.70791625976562</v>
       </c>
       <c r="B245" t="n">
         <v>88.27</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>88.62676239013672</v>
+        <v>95.89804077148438</v>
       </c>
       <c r="B246" t="n">
         <v>88.696</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>89.14800262451172</v>
+        <v>96.82431030273438</v>
       </c>
       <c r="B247" t="n">
         <v>88.88500000000001</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>89.88317108154297</v>
+        <v>97.44157409667969</v>
       </c>
       <c r="B248" t="n">
         <v>88.979</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>90.73393249511719</v>
+        <v>97.75103759765625</v>
       </c>
       <c r="B249" t="n">
         <v>89.26300000000001</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>91.67707061767578</v>
+        <v>97.84398651123047</v>
       </c>
       <c r="B250" t="n">
         <v>89.59399999999999</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>92.6861572265625</v>
+        <v>97.89141845703125</v>
       </c>
       <c r="B251" t="n">
         <v>89.68899999999999</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>93.73391723632812</v>
+        <v>97.96466064453125</v>
       </c>
       <c r="B252" t="n">
         <v>89.5</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>94.77110290527344</v>
+        <v>98.0355224609375</v>
       </c>
       <c r="B253" t="n">
         <v>89.21599999999999</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>95.68141174316406</v>
+        <v>98.04615783691406</v>
       </c>
       <c r="B254" t="n">
         <v>88.932</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>96.33238220214844</v>
+        <v>97.85082244873047</v>
       </c>
       <c r="B255" t="n">
         <v>88.696</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>96.62778472900391</v>
+        <v>97.36214447021484</v>
       </c>
       <c r="B256" t="n">
         <v>88.41200000000001</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>96.46058654785156</v>
+        <v>96.53520202636719</v>
       </c>
       <c r="B257" t="n">
         <v>87.986</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>95.88720703125</v>
+        <v>95.35796356201172</v>
       </c>
       <c r="B258" t="n">
         <v>87.56100000000001</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>94.92713165283203</v>
+        <v>93.95631408691406</v>
       </c>
       <c r="B259" t="n">
         <v>87.041</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>93.7001953125</v>
+        <v>92.56638336181641</v>
       </c>
       <c r="B260" t="n">
         <v>86.095</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>92.36240386962891</v>
+        <v>91.34669494628906</v>
       </c>
       <c r="B261" t="n">
         <v>85.054</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>91.1201171875</v>
+        <v>90.3997802734375</v>
       </c>
       <c r="B262" t="n">
         <v>84.58199999999999</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>90.13844299316406</v>
+        <v>89.79412078857422</v>
       </c>
       <c r="B263" t="n">
         <v>84.392</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>89.56515502929688</v>
+        <v>89.56060028076172</v>
       </c>
       <c r="B264" t="n">
         <v>84.15600000000001</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>89.4442138671875</v>
+        <v>89.65452575683594</v>
       </c>
       <c r="B265" t="n">
         <v>84.06100000000001</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>89.67272186279297</v>
+        <v>90.03704071044922</v>
       </c>
       <c r="B266" t="n">
         <v>84.298</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>90.08287811279297</v>
+        <v>90.63739776611328</v>
       </c>
       <c r="B267" t="n">
         <v>85.00700000000001</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>90.44168853759766</v>
+        <v>91.38117980957031</v>
       </c>
       <c r="B268" t="n">
         <v>85.858</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>90.61203002929688</v>
+        <v>92.18769073486328</v>
       </c>
       <c r="B269" t="n">
         <v>86.473</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>90.64863586425781</v>
+        <v>92.96287536621094</v>
       </c>
       <c r="B270" t="n">
         <v>86.899</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>90.80619812011719</v>
+        <v>93.64634704589844</v>
       </c>
       <c r="B271" t="n">
         <v>87.23</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>91.09580230712891</v>
+        <v>94.17349243164062</v>
       </c>
       <c r="B272" t="n">
         <v>87.46599999999999</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>91.30258941650391</v>
+        <v>94.5130615234375</v>
       </c>
       <c r="B273" t="n">
         <v>87.608</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>91.32038116455078</v>
+        <v>94.65580749511719</v>
       </c>
       <c r="B274" t="n">
         <v>87.655</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>91.04432678222656</v>
+        <v>94.61582183837891</v>
       </c>
       <c r="B275" t="n">
         <v>87.84399999999999</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>90.46409606933594</v>
+        <v>94.41365814208984</v>
       </c>
       <c r="B276" t="n">
         <v>88.223</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>89.71437072753906</v>
+        <v>94.13777160644531</v>
       </c>
       <c r="B277" t="n">
         <v>88.41200000000001</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>88.96418762207031</v>
+        <v>93.95232391357422</v>
       </c>
       <c r="B278" t="n">
         <v>88.459</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>88.48870086669922</v>
+        <v>94.04005432128906</v>
       </c>
       <c r="B279" t="n">
         <v>88.554</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>88.33997344970703</v>
+        <v>94.3673095703125</v>
       </c>
       <c r="B280" t="n">
         <v>88.554</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>88.42625427246094</v>
+        <v>94.72669982910156</v>
       </c>
       <c r="B281" t="n">
         <v>88.554</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>88.69574737548828</v>
+        <v>94.94132232666016</v>
       </c>
       <c r="B282" t="n">
         <v>88.837</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>89.04696655273438</v>
+        <v>94.96281433105469</v>
       </c>
       <c r="B283" t="n">
         <v>89.358</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>89.35331726074219</v>
+        <v>94.84487152099609</v>
       </c>
       <c r="B284" t="n">
         <v>89.831</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>89.58724975585938</v>
+        <v>94.72219848632812</v>
       </c>
       <c r="B285" t="n">
         <v>90.06699999999999</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>89.85856628417969</v>
+        <v>94.67333984375</v>
       </c>
       <c r="B286" t="n">
         <v>89.878</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>90.29756927490234</v>
+        <v>94.69889831542969</v>
       </c>
       <c r="B287" t="n">
         <v>89.5</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>90.88703918457031</v>
+        <v>94.76313018798828</v>
       </c>
       <c r="B288" t="n">
         <v>89.452</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>91.60887145996094</v>
+        <v>94.8480224609375</v>
       </c>
       <c r="B289" t="n">
         <v>89.452</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>92.36405944824219</v>
+        <v>94.96501159667969</v>
       </c>
       <c r="B290" t="n">
         <v>89.26300000000001</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>93.03431701660156</v>
+        <v>95.08071899414062</v>
       </c>
       <c r="B291" t="n">
         <v>89.26300000000001</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>93.51724243164062</v>
+        <v>95.11017608642578</v>
       </c>
       <c r="B292" t="n">
         <v>89.5</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>93.77993774414062</v>
+        <v>94.98352813720703</v>
       </c>
       <c r="B293" t="n">
         <v>89.783</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>93.79695129394531</v>
+        <v>94.63551330566406</v>
       </c>
       <c r="B294" t="n">
         <v>90.02</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>93.52169036865234</v>
+        <v>94.02973175048828</v>
       </c>
       <c r="B295" t="n">
         <v>90.114</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>93.04050445556641</v>
+        <v>93.26676177978516</v>
       </c>
       <c r="B296" t="n">
         <v>90.06699999999999</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>92.58644866943359</v>
+        <v>92.54838562011719</v>
       </c>
       <c r="B297" t="n">
         <v>89.97199999999999</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>92.35215759277344</v>
+        <v>92.00309753417969</v>
       </c>
       <c r="B298" t="n">
         <v>89.831</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>92.30821228027344</v>
+        <v>91.66162109375</v>
       </c>
       <c r="B299" t="n">
         <v>89.736</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>92.38166809082031</v>
+        <v>91.53125</v>
       </c>
       <c r="B300" t="n">
         <v>89.783</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>92.52566528320312</v>
+        <v>91.56672668457031</v>
       </c>
       <c r="B301" t="n">
         <v>89.831</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>92.74664306640625</v>
+        <v>91.6636962890625</v>
       </c>
       <c r="B302" t="n">
         <v>89.783</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>92.98713684082031</v>
+        <v>91.73457336425781</v>
       </c>
       <c r="B303" t="n">
         <v>89.5</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>93.19244384765625</v>
+        <v>91.73058319091797</v>
       </c>
       <c r="B304" t="n">
         <v>89.027</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>93.29743957519531</v>
+        <v>91.65555572509766</v>
       </c>
       <c r="B305" t="n">
         <v>88.648</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>93.31101989746094</v>
+        <v>91.56548309326172</v>
       </c>
       <c r="B306" t="n">
         <v>88.41200000000001</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>93.25600433349609</v>
+        <v>91.51287841796875</v>
       </c>
       <c r="B307" t="n">
         <v>88.223</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>93.12481689453125</v>
+        <v>91.39968872070312</v>
       </c>
       <c r="B308" t="n">
         <v>88.175</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>92.877685546875</v>
+        <v>91.10195159912109</v>
       </c>
       <c r="B309" t="n">
         <v>88.459</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>92.49122619628906</v>
+        <v>90.5634765625</v>
       </c>
       <c r="B310" t="n">
         <v>88.932</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>91.97563171386719</v>
+        <v>89.88308715820312</v>
       </c>
       <c r="B311" t="n">
         <v>89.31</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>91.4495849609375</v>
+        <v>89.20703887939453</v>
       </c>
       <c r="B312" t="n">
         <v>89.547</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>91.02206420898438</v>
+        <v>88.64863586425781</v>
       </c>
       <c r="B313" t="n">
         <v>89.547</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>90.80778503417969</v>
+        <v>88.26659393310547</v>
       </c>
       <c r="B314" t="n">
         <v>89.5</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>90.87910461425781</v>
+        <v>88.05317687988281</v>
       </c>
       <c r="B315" t="n">
         <v>89.878</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>91.17110443115234</v>
+        <v>88.03618621826172</v>
       </c>
       <c r="B316" t="n">
         <v>90.398</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>91.53636169433594</v>
+        <v>88.22914123535156</v>
       </c>
       <c r="B317" t="n">
         <v>90.634</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>91.86648559570312</v>
+        <v>88.60121917724609</v>
       </c>
       <c r="B318" t="n">
         <v>90.682</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>92.00081634521484</v>
+        <v>89.0726318359375</v>
       </c>
       <c r="B319" t="n">
         <v>90.587</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>91.807861328125</v>
+        <v>89.54325103759766</v>
       </c>
       <c r="B320" t="n">
         <v>90.49299999999999</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>91.23545837402344</v>
+        <v>89.96141052246094</v>
       </c>
       <c r="B321" t="n">
         <v>90.54000000000001</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>91.23545837402344</v>
+        <v>90.36738586425781</v>
       </c>
       <c r="B322" t="n">
         <v>90.54000000000001</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>90.83467102050781</v>
+        <v>90.81159973144531</v>
       </c>
       <c r="B323" t="n">
         <v>90.587</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>90.03505706787109</v>
+        <v>91.32529449462891</v>
       </c>
       <c r="B324" t="n">
         <v>90.587</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>89.28097534179688</v>
+        <v>91.84266662597656</v>
       </c>
       <c r="B325" t="n">
         <v>90.729</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>88.76142883300781</v>
+        <v>92.27497100830078</v>
       </c>
       <c r="B326" t="n">
         <v>90.965</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>88.08004760742188</v>
+        <v>92.60293579101562</v>
       </c>
       <c r="B327" t="n">
         <v>91.01300000000001</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>87.54654693603516</v>
+        <v>92.81739044189453</v>
       </c>
       <c r="B328" t="n">
         <v>91.107</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>87.24872589111328</v>
+        <v>92.90083312988281</v>
       </c>
       <c r="B329" t="n">
         <v>91.29600000000001</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>86.84364318847656</v>
+        <v>92.81455230712891</v>
       </c>
       <c r="B330" t="n">
         <v>91.249</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>86.46772766113281</v>
+        <v>92.62107086181641</v>
       </c>
       <c r="B331" t="n">
         <v>90.965</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>86.26708984375</v>
+        <v>92.41847229003906</v>
       </c>
       <c r="B332" t="n">
         <v>90.634</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>85.99502563476562</v>
+        <v>92.31436157226562</v>
       </c>
       <c r="B333" t="n">
         <v>90.587</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>85.77661895751953</v>
+        <v>92.41774749755859</v>
       </c>
       <c r="B334" t="n">
         <v>90.824</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>85.64727783203125</v>
+        <v>92.80010986328125</v>
       </c>
       <c r="B335" t="n">
         <v>90.91800000000001</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>85.47624969482422</v>
+        <v>93.37599182128906</v>
       </c>
       <c r="B336" t="n">
         <v>90.682</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>85.21192169189453</v>
+        <v>93.95429229736328</v>
       </c>
       <c r="B337" t="n">
         <v>90.44499999999999</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>85.20995330810547</v>
+        <v>94.42516326904297</v>
       </c>
       <c r="B338" t="n">
         <v>90.303</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>85.23094940185547</v>
+        <v>94.78290557861328</v>
       </c>
       <c r="B339" t="n">
         <v>89.97199999999999</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>85.338134765625</v>
+        <v>94.96597290039062</v>
       </c>
       <c r="B340" t="n">
         <v>89.5</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>85.72397613525391</v>
+        <v>94.85400390625</v>
       </c>
       <c r="B341" t="n">
         <v>89.121</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>85.94210815429688</v>
+        <v>94.44140625</v>
       </c>
       <c r="B342" t="n">
         <v>88.88500000000001</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>86.26923370361328</v>
+        <v>93.85629272460938</v>
       </c>
       <c r="B343" t="n">
         <v>88.696</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>86.64734649658203</v>
+        <v>93.16602325439453</v>
       </c>
       <c r="B344" t="n">
         <v>88.601</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>87.04473876953125</v>
+        <v>92.47367095947266</v>
       </c>
       <c r="B345" t="n">
         <v>88.601</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>87.47768402099609</v>
+        <v>91.9188232421875</v>
       </c>
       <c r="B346" t="n">
         <v>88.648</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>87.89544677734375</v>
+        <v>91.560302734375</v>
       </c>
       <c r="B347" t="n">
         <v>88.74299999999999</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>88.42525482177734</v>
+        <v>91.39583587646484</v>
       </c>
       <c r="B348" t="n">
         <v>88.696</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>88.95124816894531</v>
+        <v>91.40678405761719</v>
       </c>
       <c r="B349" t="n">
         <v>88.696</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>89.13529968261719</v>
+        <v>91.46121978759766</v>
       </c>
       <c r="B350" t="n">
         <v>89.121</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>89.36818695068359</v>
+        <v>91.39453125</v>
       </c>
       <c r="B351" t="n">
         <v>89.68899999999999</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>89.15875244140625</v>
+        <v>91.18780517578125</v>
       </c>
       <c r="B352" t="n">
         <v>90.16200000000001</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>89.08608245849609</v>
+        <v>90.94298553466797</v>
       </c>
       <c r="B353" t="n">
         <v>90.587</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>88.70610809326172</v>
+        <v>90.75599670410156</v>
       </c>
       <c r="B354" t="n">
         <v>90.871</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>88.46673583984375</v>
+        <v>90.69535064697266</v>
       </c>
       <c r="B355" t="n">
         <v>91.01300000000001</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>88.23312377929688</v>
+        <v>90.81151580810547</v>
       </c>
       <c r="B356" t="n">
         <v>90.965</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>87.99265289306641</v>
+        <v>91.14470672607422</v>
       </c>
       <c r="B357" t="n">
         <v>90.776</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>87.66693115234375</v>
+        <v>91.64462280273438</v>
       </c>
       <c r="B358" t="n">
         <v>90.682</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>87.23967742919922</v>
+        <v>92.15511322021484</v>
       </c>
       <c r="B359" t="n">
         <v>90.729</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>86.88289642333984</v>
+        <v>92.4752197265625</v>
       </c>
       <c r="B360" t="n">
         <v>90.871</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>86.50856781005859</v>
+        <v>92.52724456787109</v>
       </c>
       <c r="B361" t="n">
         <v>91.01300000000001</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>85.9791259765625</v>
+        <v>92.33112335205078</v>
       </c>
       <c r="B362" t="n">
         <v>91.107</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>85.42433929443359</v>
+        <v>92.00309753417969</v>
       </c>
       <c r="B363" t="n">
         <v>91.29600000000001</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>85.12337493896484</v>
+        <v>91.65615844726562</v>
       </c>
       <c r="B364" t="n">
         <v>91.533</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>84.80658721923828</v>
+        <v>91.38116455078125</v>
       </c>
       <c r="B365" t="n">
         <v>91.39100000000001</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>84.54099273681641</v>
+        <v>91.203369140625</v>
       </c>
       <c r="B366" t="n">
         <v>91.155</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>84.67388916015625</v>
+        <v>91.17972564697266</v>
       </c>
       <c r="B367" t="n">
         <v>91.39100000000001</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>84.74295806884766</v>
+        <v>91.35977935791016</v>
       </c>
       <c r="B368" t="n">
         <v>91.675</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>84.8531494140625</v>
+        <v>91.70162200927734</v>
       </c>
       <c r="B369" t="n">
         <v>91.76900000000001</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>84.86913299560547</v>
+        <v>92.10154724121094</v>
       </c>
       <c r="B370" t="n">
         <v>91.72199999999999</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>84.73687744140625</v>
+        <v>92.42373657226562</v>
       </c>
       <c r="B371" t="n">
         <v>91.486</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>84.60646820068359</v>
+        <v>92.598388671875</v>
       </c>
       <c r="B372" t="n">
         <v>91.202</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>84.21937561035156</v>
+        <v>92.62521362304688</v>
       </c>
       <c r="B373" t="n">
         <v>90.871</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>83.77757263183594</v>
+        <v>92.49717712402344</v>
       </c>
       <c r="B374" t="n">
         <v>90.54000000000001</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>83.22724151611328</v>
+        <v>92.1954345703125</v>
       </c>
       <c r="B375" t="n">
         <v>90.303</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>82.72459411621094</v>
+        <v>91.70339965820312</v>
       </c>
       <c r="B376" t="n">
         <v>90.16200000000001</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>82.28673553466797</v>
+        <v>91.10490417480469</v>
       </c>
       <c r="B377" t="n">
         <v>90.06699999999999</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>82.03110504150391</v>
+        <v>90.45218658447266</v>
       </c>
       <c r="B378" t="n">
         <v>89.831</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>81.84282684326172</v>
+        <v>89.80359649658203</v>
       </c>
       <c r="B379" t="n">
         <v>89.452</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>81.90086364746094</v>
+        <v>89.2353515625</v>
       </c>
       <c r="B380" t="n">
         <v>89.21599999999999</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>81.95432281494141</v>
+        <v>88.77790832519531</v>
       </c>
       <c r="B381" t="n">
         <v>89.074</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>82.23345947265625</v>
+        <v>88.43386840820312</v>
       </c>
       <c r="B382" t="n">
         <v>88.79000000000001</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>82.58067321777344</v>
+        <v>88.23390197753906</v>
       </c>
       <c r="B383" t="n">
         <v>88.459</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>82.92019653320312</v>
+        <v>88.18858337402344</v>
       </c>
       <c r="B384" t="n">
         <v>88.27</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>83.50495147705078</v>
+        <v>88.26949310302734</v>
       </c>
       <c r="B385" t="n">
         <v>88.081</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>83.73921966552734</v>
+        <v>88.43562316894531</v>
       </c>
       <c r="B386" t="n">
         <v>87.892</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>84.00141143798828</v>
+        <v>88.63070678710938</v>
       </c>
       <c r="B387" t="n">
         <v>87.892</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>84.23046875</v>
+        <v>88.74995422363281</v>
       </c>
       <c r="B388" t="n">
         <v>87.93899999999999</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>84.44783020019531</v>
+        <v>88.70614624023438</v>
       </c>
       <c r="B389" t="n">
         <v>87.892</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>84.45201873779297</v>
+        <v>88.53330230712891</v>
       </c>
       <c r="B390" t="n">
         <v>87.75</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>84.30424499511719</v>
+        <v>88.31437683105469</v>
       </c>
       <c r="B391" t="n">
         <v>87.277</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>84.11038970947266</v>
+        <v>88.08112335205078</v>
       </c>
       <c r="B392" t="n">
         <v>86.851</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>83.640380859375</v>
+        <v>87.82331848144531</v>
       </c>
       <c r="B393" t="n">
         <v>87.277</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>83.18928527832031</v>
+        <v>87.48574829101562</v>
       </c>
       <c r="B394" t="n">
         <v>87.986</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>82.81895446777344</v>
+        <v>86.99105072021484</v>
       </c>
       <c r="B395" t="n">
         <v>88.554</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>82.59686279296875</v>
+        <v>86.32015228271484</v>
       </c>
       <c r="B396" t="n">
         <v>89.074</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>82.41148376464844</v>
+        <v>85.53741455078125</v>
       </c>
       <c r="B397" t="n">
         <v>89.452</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>82.10882568359375</v>
+        <v>84.77667999267578</v>
       </c>
       <c r="B398" t="n">
         <v>90.02</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>81.86664581298828</v>
+        <v>84.13880920410156</v>
       </c>
       <c r="B399" t="n">
         <v>90.634</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>81.87683868408203</v>
+        <v>83.70811462402344</v>
       </c>
       <c r="B400" t="n">
         <v>91.01300000000001</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>81.99368286132812</v>
+        <v>83.52703857421875</v>
       </c>
       <c r="B401" t="n">
         <v>91.249</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>82.36026000976562</v>
+        <v>83.61274719238281</v>
       </c>
       <c r="B402" t="n">
         <v>91.438</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>82.88145446777344</v>
+        <v>83.87471008300781</v>
       </c>
       <c r="B403" t="n">
         <v>91.675</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>83.55325317382812</v>
+        <v>84.22405242919922</v>
       </c>
       <c r="B404" t="n">
         <v>92.006</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>84.24725341796875</v>
+        <v>84.57650756835938</v>
       </c>
       <c r="B405" t="n">
         <v>91.959</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>84.72856140136719</v>
+        <v>84.89158630371094</v>
       </c>
       <c r="B406" t="n">
         <v>91.34399999999999</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>85.41421508789062</v>
+        <v>85.12962341308594</v>
       </c>
       <c r="B407" t="n">
         <v>90.871</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>85.88284301757812</v>
+        <v>85.31598663330078</v>
       </c>
       <c r="B408" t="n">
         <v>90.682</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>86.28037261962891</v>
+        <v>85.41928100585938</v>
       </c>
       <c r="B409" t="n">
         <v>90.49299999999999</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>86.48152923583984</v>
+        <v>85.43846130371094</v>
       </c>
       <c r="B410" t="n">
         <v>90.398</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>86.83864593505859</v>
+        <v>85.44207000732422</v>
       </c>
       <c r="B411" t="n">
         <v>90.54000000000001</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>87.32114410400391</v>
+        <v>85.54367065429688</v>
       </c>
       <c r="B412" t="n">
         <v>90.965</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>87.95991516113281</v>
+        <v>85.81977844238281</v>
       </c>
       <c r="B413" t="n">
         <v>91.34399999999999</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>88.81533813476562</v>
+        <v>86.2431640625</v>
       </c>
       <c r="B414" t="n">
         <v>91.438</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>89.94309234619141</v>
+        <v>86.74922180175781</v>
       </c>
       <c r="B415" t="n">
         <v>91.58</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>91.13165283203125</v>
+        <v>87.2757568359375</v>
       </c>
       <c r="B416" t="n">
         <v>91.72199999999999</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>92.37593078613281</v>
+        <v>87.80534362792969</v>
       </c>
       <c r="B417" t="n">
         <v>91.627</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>93.14414978027344</v>
+        <v>88.31712341308594</v>
       </c>
       <c r="B418" t="n">
         <v>91.438</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>93.70974731445312</v>
+        <v>88.81825256347656</v>
       </c>
       <c r="B419" t="n">
         <v>91.249</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>93.89402770996094</v>
+        <v>89.27230072021484</v>
       </c>
       <c r="B420" t="n">
         <v>91.01300000000001</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>93.79698181152344</v>
+        <v>89.64634704589844</v>
       </c>
       <c r="B421" t="n">
         <v>90.871</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>93.44606018066406</v>
+        <v>89.92707824707031</v>
       </c>
       <c r="B422" t="n">
         <v>90.91800000000001</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>92.95872497558594</v>
+        <v>90.12925720214844</v>
       </c>
       <c r="B423" t="n">
         <v>90.682</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>92.52642059326172</v>
+        <v>90.28770446777344</v>
       </c>
       <c r="B424" t="n">
         <v>90.06699999999999</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>92.03480529785156</v>
+        <v>90.40185546875</v>
       </c>
       <c r="B425" t="n">
         <v>89.68899999999999</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>91.73703765869141</v>
+        <v>90.56117248535156</v>
       </c>
       <c r="B426" t="n">
         <v>89.64100000000001</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>91.46208190917969</v>
+        <v>90.75347900390625</v>
       </c>
       <c r="B427" t="n">
         <v>89.5</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>91.09524536132812</v>
+        <v>90.91999816894531</v>
       </c>
       <c r="B428" t="n">
         <v>89.358</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>90.91947937011719</v>
+        <v>90.87731170654297</v>
       </c>
       <c r="B429" t="n">
         <v>89.68899999999999</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>90.45051574707031</v>
+        <v>90.48018646240234</v>
       </c>
       <c r="B430" t="n">
         <v>90.114</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>90.07025146484375</v>
+        <v>89.72885894775391</v>
       </c>
       <c r="B431" t="n">
         <v>90.114</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>89.61415100097656</v>
+        <v>88.78182983398438</v>
       </c>
       <c r="B432" t="n">
         <v>90.02</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>89.29689025878906</v>
+        <v>87.81599426269531</v>
       </c>
       <c r="B433" t="n">
         <v>90.02</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>89.14752197265625</v>
+        <v>87.05816650390625</v>
       </c>
       <c r="B434" t="n">
         <v>90.06699999999999</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>89.01670837402344</v>
+        <v>86.51144409179688</v>
       </c>
       <c r="B435" t="n">
         <v>90.06699999999999</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>89.01294708251953</v>
+        <v>86.13639831542969</v>
       </c>
       <c r="B436" t="n">
         <v>90.02</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>88.86000061035156</v>
+        <v>85.95717620849609</v>
       </c>
       <c r="B437" t="n">
         <v>90.16200000000001</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>88.70939636230469</v>
+        <v>85.88771057128906</v>
       </c>
       <c r="B438" t="n">
         <v>90.49299999999999</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>88.27850341796875</v>
+        <v>85.74115753173828</v>
       </c>
       <c r="B439" t="n">
         <v>90.634</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>87.45687103271484</v>
+        <v>85.36127471923828</v>
       </c>
       <c r="B440" t="n">
         <v>90.49299999999999</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>86.50779724121094</v>
+        <v>84.78354644775391</v>
       </c>
       <c r="B441" t="n">
         <v>90.398</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>85.4593505859375</v>
+        <v>84.18147277832031</v>
       </c>
       <c r="B442" t="n">
         <v>90.06699999999999</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>84.52397155761719</v>
+        <v>83.79983520507812</v>
       </c>
       <c r="B443" t="n">
         <v>89.736</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>83.9005126953125</v>
+        <v>83.80460357666016</v>
       </c>
       <c r="B444" t="n">
         <v>89.925</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>83.89305877685547</v>
+        <v>84.26033020019531</v>
       </c>
       <c r="B445" t="n">
         <v>89.831</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>84.24662780761719</v>
+        <v>85.08742523193359</v>
       </c>
       <c r="B446" t="n">
         <v>89.31</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>85.12750244140625</v>
+        <v>86.064697265625</v>
       </c>
       <c r="B447" t="n">
         <v>88.932</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>86.13225555419922</v>
+        <v>86.90689849853516</v>
       </c>
       <c r="B448" t="n">
         <v>88.506</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>86.92869567871094</v>
+        <v>87.40141296386719</v>
       </c>
       <c r="B449" t="n">
         <v>87.892</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>87.6617431640625</v>
+        <v>87.50276947021484</v>
       </c>
       <c r="B450" t="n">
         <v>87.372</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>88.48054504394531</v>
+        <v>87.32330322265625</v>
       </c>
       <c r="B451" t="n">
         <v>87.182</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>88.82834625244141</v>
+        <v>87.0487060546875</v>
       </c>
       <c r="B452" t="n">
         <v>87.372</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>89.12617492675781</v>
+        <v>86.85635375976562</v>
       </c>
       <c r="B453" t="n">
         <v>87.655</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>89.42217254638672</v>
+        <v>86.86216735839844</v>
       </c>
       <c r="B454" t="n">
         <v>87.703</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>89.54111480712891</v>
+        <v>87.07523345947266</v>
       </c>
       <c r="B455" t="n">
         <v>87.75</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>89.83511352539062</v>
+        <v>87.33967590332031</v>
       </c>
       <c r="B456" t="n">
         <v>87.93899999999999</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>89.94755554199219</v>
+        <v>87.44678497314453</v>
       </c>
       <c r="B457" t="n">
         <v>87.986</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>89.84478759765625</v>
+        <v>87.35918426513672</v>
       </c>
       <c r="B458" t="n">
         <v>87.46599999999999</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>89.72265625</v>
+        <v>87.06710815429688</v>
       </c>
       <c r="B459" t="n">
         <v>86.851</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>89.26738739013672</v>
+        <v>86.74739837646484</v>
       </c>
       <c r="B460" t="n">
         <v>87.041</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>88.92800903320312</v>
+        <v>86.52516174316406</v>
       </c>
       <c r="B461" t="n">
         <v>87.372</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>88.39864349365234</v>
+        <v>86.51564025878906</v>
       </c>
       <c r="B462" t="n">
         <v>87.23</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>88.15719604492188</v>
+        <v>86.74233245849609</v>
       </c>
       <c r="B463" t="n">
         <v>86.99299999999999</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>88.07392120361328</v>
+        <v>87.17863464355469</v>
       </c>
       <c r="B464" t="n">
         <v>86.851</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>88.58255767822266</v>
+        <v>87.77262115478516</v>
       </c>
       <c r="B465" t="n">
         <v>86.899</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>89.08225250244141</v>
+        <v>88.45417785644531</v>
       </c>
       <c r="B466" t="n">
         <v>87.041</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>89.83092498779297</v>
+        <v>89.07095336914062</v>
       </c>
       <c r="B467" t="n">
         <v>86.946</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>90.49575805664062</v>
+        <v>89.52888488769531</v>
       </c>
       <c r="B468" t="n">
         <v>86.851</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>91.08700561523438</v>
+        <v>89.89015960693359</v>
       </c>
       <c r="B469" t="n">
         <v>87.041</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>91.66917419433594</v>
+        <v>90.30060577392578</v>
       </c>
       <c r="B470" t="n">
         <v>87.277</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>92.02205657958984</v>
+        <v>90.81430053710938</v>
       </c>
       <c r="B471" t="n">
         <v>87.419</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>92.29341125488281</v>
+        <v>91.44741058349609</v>
       </c>
       <c r="B472" t="n">
         <v>87.56100000000001</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>92.64573669433594</v>
+        <v>92.02644348144531</v>
       </c>
       <c r="B473" t="n">
         <v>87.75</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>92.82696533203125</v>
+        <v>92.45698547363281</v>
       </c>
       <c r="B474" t="n">
         <v>87.892</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>92.89541625976562</v>
+        <v>92.67662811279297</v>
       </c>
       <c r="B475" t="n">
         <v>87.892</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>92.95458984375</v>
+        <v>92.68415069580078</v>
       </c>
       <c r="B476" t="n">
         <v>87.56100000000001</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>92.79962921142578</v>
+        <v>92.46826171875</v>
       </c>
       <c r="B477" t="n">
         <v>87.041</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>92.66288757324219</v>
+        <v>91.99923706054688</v>
       </c>
       <c r="B478" t="n">
         <v>86.851</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>92.30655670166016</v>
+        <v>91.37397766113281</v>
       </c>
       <c r="B479" t="n">
         <v>86.99299999999999</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>92.0523681640625</v>
+        <v>90.81062316894531</v>
       </c>
       <c r="B480" t="n">
         <v>87.041</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>91.78343200683594</v>
+        <v>90.4910888671875</v>
       </c>
       <c r="B481" t="n">
         <v>86.946</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>91.22890472412109</v>
+        <v>90.30387115478516</v>
       </c>
       <c r="B482" t="n">
         <v>86.99299999999999</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>90.46288299560547</v>
+        <v>89.96127319335938</v>
       </c>
       <c r="B483" t="n">
         <v>87.277</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>89.53129577636719</v>
+        <v>89.28510284423828</v>
       </c>
       <c r="B484" t="n">
         <v>87.372</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>88.48457336425781</v>
+        <v>88.32650756835938</v>
       </c>
       <c r="B485" t="n">
         <v>86.99299999999999</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>87.60101318359375</v>
+        <v>87.36448669433594</v>
       </c>
       <c r="B486" t="n">
         <v>86.709</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>86.92738342285156</v>
+        <v>86.69236755371094</v>
       </c>
       <c r="B487" t="n">
         <v>86.99299999999999</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>86.79450988769531</v>
+        <v>86.50694274902344</v>
       </c>
       <c r="B488" t="n">
         <v>87.51300000000001</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>86.76844787597656</v>
+        <v>86.77165985107422</v>
       </c>
       <c r="B489" t="n">
         <v>87.703</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>87.105712890625</v>
+        <v>87.31353759765625</v>
       </c>
       <c r="B490" t="n">
         <v>87.56100000000001</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>87.18455505371094</v>
+        <v>87.88165283203125</v>
       </c>
       <c r="B491" t="n">
         <v>87.56100000000001</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>87.40766143798828</v>
+        <v>88.23119354248047</v>
       </c>
       <c r="B492" t="n">
         <v>87.797</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>87.32884979248047</v>
+        <v>88.17670440673828</v>
       </c>
       <c r="B493" t="n">
         <v>87.797</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>86.94837951660156</v>
+        <v>87.73738098144531</v>
       </c>
       <c r="B494" t="n">
         <v>87.277</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>86.45973205566406</v>
+        <v>87.115234375</v>
       </c>
       <c r="B495" t="n">
         <v>86.946</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>85.72747802734375</v>
+        <v>86.51845550537109</v>
       </c>
       <c r="B496" t="n">
         <v>87.277</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>85.23001861572266</v>
+        <v>86.04593658447266</v>
       </c>
       <c r="B497" t="n">
         <v>87.56100000000001</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>85.20130920410156</v>
+        <v>85.81202697753906</v>
       </c>
       <c r="B498" t="n">
         <v>87.51300000000001</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>85.68637084960938</v>
+        <v>85.94062042236328</v>
       </c>
       <c r="B499" t="n">
         <v>87.51300000000001</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>86.41085815429688</v>
+        <v>86.40251922607422</v>
       </c>
       <c r="B500" t="n">
         <v>87.703</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>87.30858612060547</v>
+        <v>87.09214782714844</v>
       </c>
       <c r="B501" t="n">
         <v>87.93899999999999</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>88.29794311523438</v>
+        <v>87.92156982421875</v>
       </c>
       <c r="B502" t="n">
         <v>87.892</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>89.11726379394531</v>
+        <v>88.73532104492188</v>
       </c>
       <c r="B503" t="n">
         <v>87.56100000000001</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>89.72789764404297</v>
+        <v>89.40161895751953</v>
       </c>
       <c r="B504" t="n">
         <v>87.46599999999999</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>89.99468231201172</v>
+        <v>89.79776000976562</v>
       </c>
       <c r="B505" t="n">
         <v>87.797</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>89.92289733886719</v>
+        <v>89.97883605957031</v>
       </c>
       <c r="B506" t="n">
         <v>88.081</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>89.60591888427734</v>
+        <v>89.93121337890625</v>
       </c>
       <c r="B507" t="n">
         <v>87.986</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>89.46623992919922</v>
+        <v>89.69514465332031</v>
       </c>
       <c r="B508" t="n">
         <v>87.84399999999999</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>89.23011779785156</v>
+        <v>89.44113159179688</v>
       </c>
       <c r="B509" t="n">
         <v>87.93899999999999</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>89.18942260742188</v>
+        <v>89.30364990234375</v>
       </c>
       <c r="B510" t="n">
         <v>87.93899999999999</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>89.357421875</v>
+        <v>89.30067443847656</v>
       </c>
       <c r="B511" t="n">
         <v>87.608</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>89.77304077148438</v>
+        <v>89.48472595214844</v>
       </c>
       <c r="B512" t="n">
         <v>87.277</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>90.02623748779297</v>
+        <v>89.8382568359375</v>
       </c>
       <c r="B513" t="n">
         <v>87.324</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>90.45237731933594</v>
+        <v>90.29083251953125</v>
       </c>
       <c r="B514" t="n">
         <v>87.608</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>90.49236297607422</v>
+        <v>90.64224243164062</v>
       </c>
       <c r="B515" t="n">
         <v>87.703</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>90.56587219238281</v>
+        <v>90.70697021484375</v>
       </c>
       <c r="B516" t="n">
         <v>87.46599999999999</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>90.33380126953125</v>
+        <v>90.49847412109375</v>
       </c>
       <c r="B517" t="n">
         <v>87.23</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>90.02173614501953</v>
+        <v>90.07434844970703</v>
       </c>
       <c r="B518" t="n">
         <v>87.277</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>89.6043701171875</v>
+        <v>89.57661437988281</v>
       </c>
       <c r="B519" t="n">
         <v>87.372</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>89.12362670898438</v>
+        <v>89.20201110839844</v>
       </c>
       <c r="B520" t="n">
         <v>87.324</v>
